--- a/data/pca/factorExposure/factorExposure_2015-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02426047903223412</v>
+        <v>0.01828858478069821</v>
       </c>
       <c r="C2">
-        <v>0.03278064226538864</v>
+        <v>-0.04588349393687303</v>
       </c>
       <c r="D2">
-        <v>-0.1298707512778381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.140637577690068</v>
+      </c>
+      <c r="E2">
+        <v>-0.009206814903741208</v>
+      </c>
+      <c r="F2">
+        <v>-0.0003331541863767657</v>
+      </c>
+      <c r="G2">
+        <v>-0.1092579121278623</v>
+      </c>
+      <c r="H2">
+        <v>0.00436857735794343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01218154233005671</v>
+        <v>-0.01534350052779816</v>
       </c>
       <c r="C3">
-        <v>0.05334458046252247</v>
+        <v>-0.03552879964955283</v>
       </c>
       <c r="D3">
-        <v>-0.07165598917900792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05079186634831762</v>
+      </c>
+      <c r="E3">
+        <v>-0.04879344924279698</v>
+      </c>
+      <c r="F3">
+        <v>0.0187466302926777</v>
+      </c>
+      <c r="G3">
+        <v>-0.125546116001013</v>
+      </c>
+      <c r="H3">
+        <v>0.01368426055435651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04648163915414222</v>
+        <v>0.03642537108825792</v>
       </c>
       <c r="C4">
-        <v>0.06852567267877117</v>
+        <v>-0.08584183581633222</v>
       </c>
       <c r="D4">
-        <v>-0.1407339531392189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1542180294084602</v>
+      </c>
+      <c r="E4">
+        <v>-0.02624628786194529</v>
+      </c>
+      <c r="F4">
+        <v>0.07361936389026247</v>
+      </c>
+      <c r="G4">
+        <v>0.013047933830234</v>
+      </c>
+      <c r="H4">
+        <v>0.03749549263877251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02868722917887212</v>
+        <v>0.02833450908193511</v>
       </c>
       <c r="C6">
-        <v>0.02305620139065733</v>
+        <v>-0.03286503059886193</v>
       </c>
       <c r="D6">
-        <v>-0.1600733057305689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1395595805855573</v>
+      </c>
+      <c r="E6">
+        <v>0.0218082605750327</v>
+      </c>
+      <c r="F6">
+        <v>0.05970439123539834</v>
+      </c>
+      <c r="G6">
+        <v>-0.05538367542017771</v>
+      </c>
+      <c r="H6">
+        <v>0.009154915824009778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01467578892193558</v>
+        <v>0.009870102116573007</v>
       </c>
       <c r="C7">
-        <v>0.03087439195313514</v>
+        <v>-0.0377247451298887</v>
       </c>
       <c r="D7">
-        <v>-0.1197956977039441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09978364013868384</v>
+      </c>
+      <c r="E7">
+        <v>0.03489233248304523</v>
+      </c>
+      <c r="F7">
+        <v>0.01821981277803271</v>
+      </c>
+      <c r="G7">
+        <v>-0.05911601855791741</v>
+      </c>
+      <c r="H7">
+        <v>0.04397818581624037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007882928991652891</v>
+        <v>0.0001888888957394666</v>
       </c>
       <c r="C8">
-        <v>0.03463392339590283</v>
+        <v>-0.03996431240880707</v>
       </c>
       <c r="D8">
-        <v>-0.08054666227984149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08076860552195003</v>
+      </c>
+      <c r="E8">
+        <v>0.006723284962487347</v>
+      </c>
+      <c r="F8">
+        <v>0.04912484760486781</v>
+      </c>
+      <c r="G8">
+        <v>-0.07446154015268797</v>
+      </c>
+      <c r="H8">
+        <v>-0.03862834900576805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03559287385748496</v>
+        <v>0.02624277151528299</v>
       </c>
       <c r="C9">
-        <v>0.06143276514057143</v>
+        <v>-0.07429824509734689</v>
       </c>
       <c r="D9">
-        <v>-0.1289237587679621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1284901004882143</v>
+      </c>
+      <c r="E9">
+        <v>-0.01532071272449739</v>
+      </c>
+      <c r="F9">
+        <v>0.04489985694647175</v>
+      </c>
+      <c r="G9">
+        <v>0.01078711308354105</v>
+      </c>
+      <c r="H9">
+        <v>0.03838747827183146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1420354277447752</v>
+        <v>0.1959057242752417</v>
       </c>
       <c r="C10">
-        <v>-0.180198325508025</v>
+        <v>0.1496989591841755</v>
       </c>
       <c r="D10">
-        <v>-0.007524710213200309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01221634216749006</v>
+      </c>
+      <c r="E10">
+        <v>-0.02776443205385585</v>
+      </c>
+      <c r="F10">
+        <v>0.04523961320971692</v>
+      </c>
+      <c r="G10">
+        <v>0.02466983676427297</v>
+      </c>
+      <c r="H10">
+        <v>-0.05478201517829523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0295270679400682</v>
+        <v>0.02097289882621974</v>
       </c>
       <c r="C11">
-        <v>0.04310840550976496</v>
+        <v>-0.05226817671505724</v>
       </c>
       <c r="D11">
-        <v>-0.05873558082726334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05198304588494272</v>
+      </c>
+      <c r="E11">
+        <v>0.02215932093269819</v>
+      </c>
+      <c r="F11">
+        <v>-0.01255505264650975</v>
+      </c>
+      <c r="G11">
+        <v>-0.02637879688187225</v>
+      </c>
+      <c r="H11">
+        <v>0.03879052031814233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0356648883012802</v>
+        <v>0.02413942519063719</v>
       </c>
       <c r="C12">
-        <v>0.04711907733255591</v>
+        <v>-0.05537870678864316</v>
       </c>
       <c r="D12">
-        <v>-0.07227193952460419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05403543600837521</v>
+      </c>
+      <c r="E12">
+        <v>0.01838090092668603</v>
+      </c>
+      <c r="F12">
+        <v>-0.01948673815064436</v>
+      </c>
+      <c r="G12">
+        <v>-0.02859117190810827</v>
+      </c>
+      <c r="H12">
+        <v>0.06904918626076526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00756511324398525</v>
+        <v>0.008240944471521842</v>
       </c>
       <c r="C13">
-        <v>0.03625933441724327</v>
+        <v>-0.04655495508937555</v>
       </c>
       <c r="D13">
-        <v>-0.1631300769527948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1663015920219518</v>
+      </c>
+      <c r="E13">
+        <v>0.03076827959171546</v>
+      </c>
+      <c r="F13">
+        <v>0.04438420707919794</v>
+      </c>
+      <c r="G13">
+        <v>-0.06487645950066229</v>
+      </c>
+      <c r="H13">
+        <v>0.03058946497838029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00106078632218509</v>
+        <v>0.002479339660948474</v>
       </c>
       <c r="C14">
-        <v>0.02422075195155062</v>
+        <v>-0.02741531293178285</v>
       </c>
       <c r="D14">
-        <v>-0.1140469502695977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1092590211739617</v>
+      </c>
+      <c r="E14">
+        <v>0.01241516066395948</v>
+      </c>
+      <c r="F14">
+        <v>0.02047255284037123</v>
+      </c>
+      <c r="G14">
+        <v>-0.08281892519869298</v>
+      </c>
+      <c r="H14">
+        <v>0.06964841184413036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003299788039596836</v>
+        <v>0.0001467806197338812</v>
       </c>
       <c r="C15">
-        <v>0.00595661258286251</v>
+        <v>-0.01526745432835083</v>
       </c>
       <c r="D15">
-        <v>-0.01299240300961102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04326381430343743</v>
+      </c>
+      <c r="E15">
+        <v>0.001677198306585319</v>
+      </c>
+      <c r="F15">
+        <v>0.001680610808057015</v>
+      </c>
+      <c r="G15">
+        <v>-0.01834734566287059</v>
+      </c>
+      <c r="H15">
+        <v>0.0003929440895922977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02543456267422942</v>
+        <v>0.01844812744625522</v>
       </c>
       <c r="C16">
-        <v>0.04443989831432916</v>
+        <v>-0.0502924119190977</v>
       </c>
       <c r="D16">
-        <v>-0.07462821160608028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06035404131115887</v>
+      </c>
+      <c r="E16">
+        <v>0.01424370945133605</v>
+      </c>
+      <c r="F16">
+        <v>-0.0001216780892197315</v>
+      </c>
+      <c r="G16">
+        <v>-0.03728255807805266</v>
+      </c>
+      <c r="H16">
+        <v>0.05865140213187905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007522302667477559</v>
+        <v>0.002986441372550767</v>
       </c>
       <c r="C19">
-        <v>0.02990500969994767</v>
+        <v>-0.02586791022848682</v>
       </c>
       <c r="D19">
-        <v>-0.1685802940606162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1162791713095456</v>
+      </c>
+      <c r="E19">
+        <v>-0.02411578388474694</v>
+      </c>
+      <c r="F19">
+        <v>0.007578809702849614</v>
+      </c>
+      <c r="G19">
+        <v>-0.05431474478008624</v>
+      </c>
+      <c r="H19">
+        <v>0.05801955100578047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01066587124816872</v>
+        <v>0.009523537145516308</v>
       </c>
       <c r="C20">
-        <v>0.03418112064865062</v>
+        <v>-0.03944218459285511</v>
       </c>
       <c r="D20">
-        <v>-0.1068823739541057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1082786199813634</v>
+      </c>
+      <c r="E20">
+        <v>-0.01141491825867884</v>
+      </c>
+      <c r="F20">
+        <v>0.03015246356199236</v>
+      </c>
+      <c r="G20">
+        <v>-0.0515530549642499</v>
+      </c>
+      <c r="H20">
+        <v>0.0461707696572791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009801829903437073</v>
+        <v>0.004693473782317596</v>
       </c>
       <c r="C21">
-        <v>0.03820690162066935</v>
+        <v>-0.04548909513514018</v>
       </c>
       <c r="D21">
-        <v>-0.1836761924230105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1614119135452821</v>
+      </c>
+      <c r="E21">
+        <v>-0.02724199660167166</v>
+      </c>
+      <c r="F21">
+        <v>0.06445420029030312</v>
+      </c>
+      <c r="G21">
+        <v>-0.09120488642364052</v>
+      </c>
+      <c r="H21">
+        <v>0.102839007734304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0004073524776903945</v>
+        <v>0.0005529720418317851</v>
       </c>
       <c r="C22">
-        <v>0.05090398532767343</v>
+        <v>-0.06022506826203633</v>
       </c>
       <c r="D22">
-        <v>-0.1557865166533406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.215006621680814</v>
+      </c>
+      <c r="E22">
+        <v>0.04631347575271814</v>
+      </c>
+      <c r="F22">
+        <v>0.02295720382065165</v>
+      </c>
+      <c r="G22">
+        <v>0.003443546803677485</v>
+      </c>
+      <c r="H22">
+        <v>-0.4873041563154013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0005809848128295218</v>
+        <v>0.001057198476851244</v>
       </c>
       <c r="C23">
-        <v>0.05125442471444216</v>
+        <v>-0.06065131487167714</v>
       </c>
       <c r="D23">
-        <v>-0.1553455558124967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2152816069272489</v>
+      </c>
+      <c r="E23">
+        <v>0.04390038151525407</v>
+      </c>
+      <c r="F23">
+        <v>0.02160354917627749</v>
+      </c>
+      <c r="G23">
+        <v>0.005151203232187773</v>
+      </c>
+      <c r="H23">
+        <v>-0.4872976052100337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03264954422427405</v>
+        <v>0.02075743762005775</v>
       </c>
       <c r="C24">
-        <v>0.05818298624981089</v>
+        <v>-0.06367327138435173</v>
       </c>
       <c r="D24">
-        <v>-0.07437747959064543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05972036080753938</v>
+      </c>
+      <c r="E24">
+        <v>0.01590693485214551</v>
+      </c>
+      <c r="F24">
+        <v>0.001275853211213242</v>
+      </c>
+      <c r="G24">
+        <v>-0.04494929224169201</v>
+      </c>
+      <c r="H24">
+        <v>0.06618606668892565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03714195725456148</v>
+        <v>0.02583065621119881</v>
       </c>
       <c r="C25">
-        <v>0.05192837560545398</v>
+        <v>-0.06082125701309205</v>
       </c>
       <c r="D25">
-        <v>-0.07372782337769107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06182154686733488</v>
+      </c>
+      <c r="E25">
+        <v>0.00630198218421623</v>
+      </c>
+      <c r="F25">
+        <v>-0.006032302608101107</v>
+      </c>
+      <c r="G25">
+        <v>-0.02223762305018908</v>
+      </c>
+      <c r="H25">
+        <v>0.04427183356647844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01048717999660267</v>
+        <v>0.009226966538522769</v>
       </c>
       <c r="C26">
-        <v>0.01388649522222915</v>
+        <v>-0.02216384457043952</v>
       </c>
       <c r="D26">
-        <v>-0.0796161056221263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07257191960811157</v>
+      </c>
+      <c r="E26">
+        <v>0.009550693775383833</v>
+      </c>
+      <c r="F26">
+        <v>0.02636344180955781</v>
+      </c>
+      <c r="G26">
+        <v>-0.04875369516302491</v>
+      </c>
+      <c r="H26">
+        <v>0.05184118787105777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2096501295845257</v>
+        <v>0.2780576880071199</v>
       </c>
       <c r="C28">
-        <v>-0.2369445003570647</v>
+        <v>0.1881263286179986</v>
       </c>
       <c r="D28">
-        <v>-0.008783991859349369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.002352273757928405</v>
+      </c>
+      <c r="E28">
+        <v>-0.05533470570929506</v>
+      </c>
+      <c r="F28">
+        <v>0.04500505286087567</v>
+      </c>
+      <c r="G28">
+        <v>0.04286689814250998</v>
+      </c>
+      <c r="H28">
+        <v>-0.03036580084818005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0003535344132714515</v>
+        <v>0.001679163967334564</v>
       </c>
       <c r="C29">
-        <v>0.02248667278387324</v>
+        <v>-0.02620028652351033</v>
       </c>
       <c r="D29">
-        <v>-0.1064908472439459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1074830377526786</v>
+      </c>
+      <c r="E29">
+        <v>0.02620387616510775</v>
+      </c>
+      <c r="F29">
+        <v>0.03544071693334908</v>
+      </c>
+      <c r="G29">
+        <v>-0.07243850726598851</v>
+      </c>
+      <c r="H29">
+        <v>0.07205922792822679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02432208633693734</v>
+        <v>0.02156977267323809</v>
       </c>
       <c r="C30">
-        <v>0.0637914523824983</v>
+        <v>-0.07714505830984765</v>
       </c>
       <c r="D30">
-        <v>-0.170382760313492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1693467927512384</v>
+      </c>
+      <c r="E30">
+        <v>0.02887477174515485</v>
+      </c>
+      <c r="F30">
+        <v>0.03927672727557331</v>
+      </c>
+      <c r="G30">
+        <v>-0.04449678778813636</v>
+      </c>
+      <c r="H30">
+        <v>0.02114188166974351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04993657682486099</v>
+        <v>0.03093731933492621</v>
       </c>
       <c r="C31">
-        <v>0.07799217072041689</v>
+        <v>-0.08537730820855552</v>
       </c>
       <c r="D31">
-        <v>-0.07102806508808285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04863345482482463</v>
+      </c>
+      <c r="E31">
+        <v>0.004267927436646884</v>
+      </c>
+      <c r="F31">
+        <v>0.02175267551454511</v>
+      </c>
+      <c r="G31">
+        <v>-0.02048342149731434</v>
+      </c>
+      <c r="H31">
+        <v>0.01786603917516163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02844647251482038</v>
+        <v>0.02364349230016086</v>
       </c>
       <c r="C32">
-        <v>0.03098415685521793</v>
+        <v>-0.03876208208765405</v>
       </c>
       <c r="D32">
-        <v>-0.1226519054658447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1294040591812431</v>
+      </c>
+      <c r="E32">
+        <v>-0.005292645736289468</v>
+      </c>
+      <c r="F32">
+        <v>0.04180818932827927</v>
+      </c>
+      <c r="G32">
+        <v>-0.04457932310799321</v>
+      </c>
+      <c r="H32">
+        <v>0.01924516904735018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01917284281017219</v>
+        <v>0.01708461669277868</v>
       </c>
       <c r="C33">
-        <v>0.04386843227676184</v>
+        <v>-0.05174727861068521</v>
       </c>
       <c r="D33">
-        <v>-0.1627979295515936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1427018240270376</v>
+      </c>
+      <c r="E33">
+        <v>0.002528834073404974</v>
+      </c>
+      <c r="F33">
+        <v>0.02804318981838826</v>
+      </c>
+      <c r="G33">
+        <v>-0.0429490010989531</v>
+      </c>
+      <c r="H33">
+        <v>0.04292534100151459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03110713636497566</v>
+        <v>0.01859698512961707</v>
       </c>
       <c r="C34">
-        <v>0.06339146343954903</v>
+        <v>-0.06586999385267781</v>
       </c>
       <c r="D34">
-        <v>-0.07056323211711268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04892887355820696</v>
+      </c>
+      <c r="E34">
+        <v>0.03030752519425567</v>
+      </c>
+      <c r="F34">
+        <v>-0.0247393532187865</v>
+      </c>
+      <c r="G34">
+        <v>-0.04143830229762989</v>
+      </c>
+      <c r="H34">
+        <v>0.05654345453849221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001527402495612334</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002482592438266291</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01229682511875291</v>
+      </c>
+      <c r="E35">
+        <v>0.001555419188631718</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009314174891082502</v>
+      </c>
+      <c r="G35">
+        <v>-0.002146664087951534</v>
+      </c>
+      <c r="H35">
+        <v>0.004359938799578847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01573542094688884</v>
+        <v>0.01554262167317052</v>
       </c>
       <c r="C36">
-        <v>0.006508555794678521</v>
+        <v>-0.01775008270302682</v>
       </c>
       <c r="D36">
-        <v>-0.1000936821878762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08751915067852914</v>
+      </c>
+      <c r="E36">
+        <v>0.0003537902079565636</v>
+      </c>
+      <c r="F36">
+        <v>0.02792125278199455</v>
+      </c>
+      <c r="G36">
+        <v>-0.03185557258958286</v>
+      </c>
+      <c r="H36">
+        <v>0.04786085234103536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01541997566584689</v>
+        <v>0.02054343473475613</v>
       </c>
       <c r="C38">
-        <v>0.01473372129274852</v>
+        <v>-0.01988956220599332</v>
       </c>
       <c r="D38">
-        <v>-0.09192501090429991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08724773886159623</v>
+      </c>
+      <c r="E38">
+        <v>-0.01606796975273492</v>
+      </c>
+      <c r="F38">
+        <v>-0.01934775890651677</v>
+      </c>
+      <c r="G38">
+        <v>-0.03927989009571364</v>
+      </c>
+      <c r="H38">
+        <v>0.03140883818329807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03327087118414522</v>
+        <v>0.02243038825118661</v>
       </c>
       <c r="C39">
-        <v>0.05901997442409374</v>
+        <v>-0.07448628440472042</v>
       </c>
       <c r="D39">
-        <v>-0.1148969623363249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1097487570089156</v>
+      </c>
+      <c r="E39">
+        <v>0.03759346032651451</v>
+      </c>
+      <c r="F39">
+        <v>-0.006842212778465626</v>
+      </c>
+      <c r="G39">
+        <v>-0.05141260227820921</v>
+      </c>
+      <c r="H39">
+        <v>0.0837226282634984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01503110531486232</v>
+        <v>0.008651969620911609</v>
       </c>
       <c r="C40">
-        <v>0.04585527481523319</v>
+        <v>-0.04302071168487042</v>
       </c>
       <c r="D40">
-        <v>-0.1227088633925838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1060035208650784</v>
+      </c>
+      <c r="E40">
+        <v>0.004153691455246456</v>
+      </c>
+      <c r="F40">
+        <v>0.03662572487921851</v>
+      </c>
+      <c r="G40">
+        <v>-0.2286761243460779</v>
+      </c>
+      <c r="H40">
+        <v>-0.05745122437018017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02991342603456301</v>
+        <v>0.02667499105474728</v>
       </c>
       <c r="C41">
-        <v>0.005770630377510948</v>
+        <v>-0.01664425496996778</v>
       </c>
       <c r="D41">
-        <v>-0.09256741468364674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06356502133663042</v>
+      </c>
+      <c r="E41">
+        <v>-0.01628296341396136</v>
+      </c>
+      <c r="F41">
+        <v>0.007742368541618132</v>
+      </c>
+      <c r="G41">
+        <v>-0.03990990600383533</v>
+      </c>
+      <c r="H41">
+        <v>0.02472514920246456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02283975933878071</v>
+        <v>0.01840837291280939</v>
       </c>
       <c r="C43">
-        <v>0.01339681743868299</v>
+        <v>-0.02122540707714332</v>
       </c>
       <c r="D43">
-        <v>-0.1152926122263092</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08261943549242826</v>
+      </c>
+      <c r="E43">
+        <v>-0.002531873856291567</v>
+      </c>
+      <c r="F43">
+        <v>0.007184149460722275</v>
+      </c>
+      <c r="G43">
+        <v>-0.05402335559417038</v>
+      </c>
+      <c r="H43">
+        <v>0.05102856478379526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005993345546685803</v>
+        <v>0.007193095429061757</v>
       </c>
       <c r="C44">
-        <v>0.0429109771057387</v>
+        <v>-0.04383479503812395</v>
       </c>
       <c r="D44">
-        <v>-0.1049073273081212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1153157844133935</v>
+      </c>
+      <c r="E44">
+        <v>-0.006991234843727649</v>
+      </c>
+      <c r="F44">
+        <v>0.02398069542157833</v>
+      </c>
+      <c r="G44">
+        <v>-0.04494929748011275</v>
+      </c>
+      <c r="H44">
+        <v>0.03540064329116632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01176604745754332</v>
+        <v>0.007028951049780482</v>
       </c>
       <c r="C46">
-        <v>0.02566964987767114</v>
+        <v>-0.0327785076995957</v>
       </c>
       <c r="D46">
-        <v>-0.1134328541231393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09998943287892011</v>
+      </c>
+      <c r="E46">
+        <v>0.01226729074474363</v>
+      </c>
+      <c r="F46">
+        <v>0.02538130485040279</v>
+      </c>
+      <c r="G46">
+        <v>-0.06931551794426506</v>
+      </c>
+      <c r="H46">
+        <v>0.08386517005753465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08872369848143488</v>
+        <v>0.06145034564637206</v>
       </c>
       <c r="C47">
-        <v>0.09410832733389077</v>
+        <v>-0.1104720512058269</v>
       </c>
       <c r="D47">
-        <v>-0.05208474442466684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03244865584753553</v>
+      </c>
+      <c r="E47">
+        <v>-0.01306696158469093</v>
+      </c>
+      <c r="F47">
+        <v>0.0006044346052965428</v>
+      </c>
+      <c r="G47">
+        <v>0.03279018843082217</v>
+      </c>
+      <c r="H47">
+        <v>0.02775067177017252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009605907487617958</v>
+        <v>0.009460641224619809</v>
       </c>
       <c r="C48">
-        <v>0.01925191009679369</v>
+        <v>-0.02572310907140719</v>
       </c>
       <c r="D48">
-        <v>-0.1002465438404304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09194272254694562</v>
+      </c>
+      <c r="E48">
+        <v>-0.02021612370516257</v>
+      </c>
+      <c r="F48">
+        <v>0.03309186259630899</v>
+      </c>
+      <c r="G48">
+        <v>-0.04859488119384788</v>
+      </c>
+      <c r="H48">
+        <v>0.05838782009439604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04661602886999532</v>
+        <v>0.03034652900447313</v>
       </c>
       <c r="C50">
-        <v>0.06255952347010148</v>
+        <v>-0.07303221127119348</v>
       </c>
       <c r="D50">
-        <v>-0.07638341859127014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06014088533051015</v>
+      </c>
+      <c r="E50">
+        <v>-0.0001632002392281425</v>
+      </c>
+      <c r="F50">
+        <v>0.01065566426327155</v>
+      </c>
+      <c r="G50">
+        <v>-0.02949309995363722</v>
+      </c>
+      <c r="H50">
+        <v>-0.0006346878754148009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008280908393267162</v>
+        <v>0.00662037551605953</v>
       </c>
       <c r="C51">
-        <v>0.01265538151912193</v>
+        <v>-0.02000026970287644</v>
       </c>
       <c r="D51">
-        <v>-0.08070485027074301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08369750104357307</v>
+      </c>
+      <c r="E51">
+        <v>0.02078588199511053</v>
+      </c>
+      <c r="F51">
+        <v>0.03443208446150932</v>
+      </c>
+      <c r="G51">
+        <v>-0.07067140574877052</v>
+      </c>
+      <c r="H51">
+        <v>0.02801256658285724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1030251813886189</v>
+        <v>0.07843770276344762</v>
       </c>
       <c r="C53">
-        <v>0.1157869047356233</v>
+        <v>-0.1375327636164803</v>
       </c>
       <c r="D53">
-        <v>-0.01828305859238233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00828276225721066</v>
+      </c>
+      <c r="E53">
+        <v>-0.05455786985057821</v>
+      </c>
+      <c r="F53">
+        <v>0.07381911177282671</v>
+      </c>
+      <c r="G53">
+        <v>-0.01701752127968022</v>
+      </c>
+      <c r="H53">
+        <v>-0.01624888528308035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01563931920295206</v>
+        <v>0.01334583513735649</v>
       </c>
       <c r="C54">
-        <v>0.02629685590968109</v>
+        <v>-0.0343173262834402</v>
       </c>
       <c r="D54">
-        <v>-0.1246891901396854</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.1027328490372736</v>
+      </c>
+      <c r="E54">
+        <v>-0.000649604635549033</v>
+      </c>
+      <c r="F54">
+        <v>0.008652200317580594</v>
+      </c>
+      <c r="G54">
+        <v>-0.07901494806679575</v>
+      </c>
+      <c r="H54">
+        <v>0.04524095121507278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09396600651960495</v>
+        <v>0.06973394416595004</v>
       </c>
       <c r="C55">
-        <v>0.089629067161741</v>
+        <v>-0.1093721534140629</v>
       </c>
       <c r="D55">
-        <v>0.003013509586727732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01109788446555116</v>
+      </c>
+      <c r="E55">
+        <v>-0.01549746388408553</v>
+      </c>
+      <c r="F55">
+        <v>0.04133019935217302</v>
+      </c>
+      <c r="G55">
+        <v>-0.01932279130437836</v>
+      </c>
+      <c r="H55">
+        <v>-0.0374439879572964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1308616471985652</v>
+        <v>0.09663636910669814</v>
       </c>
       <c r="C56">
-        <v>0.1233895896663546</v>
+        <v>-0.1593681542346138</v>
       </c>
       <c r="D56">
-        <v>0.004617693456676042</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01323354947291184</v>
+      </c>
+      <c r="E56">
+        <v>-0.04339369866375242</v>
+      </c>
+      <c r="F56">
+        <v>0.03505162697604961</v>
+      </c>
+      <c r="G56">
+        <v>-0.01697683884242481</v>
+      </c>
+      <c r="H56">
+        <v>-0.05924744302366291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0155706312912172</v>
+        <v>-0.005349209458469251</v>
       </c>
       <c r="C58">
-        <v>0.0357677894173078</v>
+        <v>-0.04935661401160311</v>
       </c>
       <c r="D58">
-        <v>-0.2239942852175518</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2842714148518209</v>
+      </c>
+      <c r="E58">
+        <v>-0.03984530321818246</v>
+      </c>
+      <c r="F58">
+        <v>0.07739295663285664</v>
+      </c>
+      <c r="G58">
+        <v>-0.0211633934688192</v>
+      </c>
+      <c r="H58">
+        <v>-0.1650745049308634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1573865022404324</v>
+        <v>0.2116621509414272</v>
       </c>
       <c r="C59">
-        <v>-0.1627775585952776</v>
+        <v>0.1250308382031762</v>
       </c>
       <c r="D59">
-        <v>-0.05305681254121674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06473482716324513</v>
+      </c>
+      <c r="E59">
+        <v>-0.04173325934557401</v>
+      </c>
+      <c r="F59">
+        <v>0.005605928833809753</v>
+      </c>
+      <c r="G59">
+        <v>0.01238939733836109</v>
+      </c>
+      <c r="H59">
+        <v>-0.01813794433481761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2314426616585358</v>
+        <v>0.1984382266870466</v>
       </c>
       <c r="C60">
-        <v>0.08672188450575904</v>
+        <v>-0.1450573769531008</v>
       </c>
       <c r="D60">
-        <v>-0.1187327422531083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06499737524902333</v>
+      </c>
+      <c r="E60">
+        <v>0.3018119102860919</v>
+      </c>
+      <c r="F60">
+        <v>-0.1603509865315043</v>
+      </c>
+      <c r="G60">
+        <v>0.2768652168819892</v>
+      </c>
+      <c r="H60">
+        <v>-0.03859008021032929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03720404705773721</v>
+        <v>0.02572049276008645</v>
       </c>
       <c r="C61">
-        <v>0.0560290729009088</v>
+        <v>-0.06836039763697731</v>
       </c>
       <c r="D61">
-        <v>-0.1146722802952477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09265937873352172</v>
+      </c>
+      <c r="E61">
+        <v>0.02624939936803516</v>
+      </c>
+      <c r="F61">
+        <v>-0.008675897382264547</v>
+      </c>
+      <c r="G61">
+        <v>-0.03472044247152512</v>
+      </c>
+      <c r="H61">
+        <v>0.08438567432826968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01187214225327089</v>
+        <v>0.008869411702979908</v>
       </c>
       <c r="C63">
-        <v>0.0253249422259158</v>
+        <v>-0.03375258841570562</v>
       </c>
       <c r="D63">
-        <v>-0.09445942930710388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07914692443563831</v>
+      </c>
+      <c r="E63">
+        <v>0.01880548575011754</v>
+      </c>
+      <c r="F63">
+        <v>0.02273883006069051</v>
+      </c>
+      <c r="G63">
+        <v>-0.04052739370312419</v>
+      </c>
+      <c r="H63">
+        <v>0.04147859770931761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.052360086604574</v>
+        <v>0.03343256605609737</v>
       </c>
       <c r="C64">
-        <v>0.07487274791533616</v>
+        <v>-0.08633205032327582</v>
       </c>
       <c r="D64">
-        <v>-0.05784046121884445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05241520994608711</v>
+      </c>
+      <c r="E64">
+        <v>0.01034785170814869</v>
+      </c>
+      <c r="F64">
+        <v>0.0505617147922279</v>
+      </c>
+      <c r="G64">
+        <v>-0.01528719539462512</v>
+      </c>
+      <c r="H64">
+        <v>0.1142889040074176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02802925546409689</v>
+        <v>0.02390710530303905</v>
       </c>
       <c r="C65">
-        <v>0.02270251371042734</v>
+        <v>-0.03624442415072563</v>
       </c>
       <c r="D65">
-        <v>-0.124127068966303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1090221940261458</v>
+      </c>
+      <c r="E65">
+        <v>0.03203452126386741</v>
+      </c>
+      <c r="F65">
+        <v>0.02055970379050587</v>
+      </c>
+      <c r="G65">
+        <v>-0.02211728884063941</v>
+      </c>
+      <c r="H65">
+        <v>0.002836109355817099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03316664802844135</v>
+        <v>0.02209033059938651</v>
       </c>
       <c r="C66">
-        <v>0.06706518545411626</v>
+        <v>-0.08567756802937693</v>
       </c>
       <c r="D66">
-        <v>-0.1264925748144465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1356305127734341</v>
+      </c>
+      <c r="E66">
+        <v>0.03145151075208921</v>
+      </c>
+      <c r="F66">
+        <v>-0.01534279047887754</v>
+      </c>
+      <c r="G66">
+        <v>-0.02799124379628444</v>
+      </c>
+      <c r="H66">
+        <v>0.04764302767595679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03719222874244449</v>
+        <v>0.03577498741245676</v>
       </c>
       <c r="C67">
-        <v>0.02229467405600185</v>
+        <v>-0.03037852932883439</v>
       </c>
       <c r="D67">
-        <v>-0.04849840273338192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03766645732731056</v>
+      </c>
+      <c r="E67">
+        <v>-0.001069386227357789</v>
+      </c>
+      <c r="F67">
+        <v>-0.03236839230678897</v>
+      </c>
+      <c r="G67">
+        <v>-0.04104230591897836</v>
+      </c>
+      <c r="H67">
+        <v>0.04482452187225242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1938022711032226</v>
+        <v>0.2438411253914655</v>
       </c>
       <c r="C68">
-        <v>-0.1897149225412826</v>
+        <v>0.1381337540090609</v>
       </c>
       <c r="D68">
-        <v>-0.0252010417190941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02985170544254926</v>
+      </c>
+      <c r="E68">
+        <v>-0.005824323454801088</v>
+      </c>
+      <c r="F68">
+        <v>0.02998995339412635</v>
+      </c>
+      <c r="G68">
+        <v>-0.02408063342244889</v>
+      </c>
+      <c r="H68">
+        <v>-0.06347339618077376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07810369796915007</v>
+        <v>0.0511943295560718</v>
       </c>
       <c r="C69">
-        <v>0.1059489686803771</v>
+        <v>-0.113090238831031</v>
       </c>
       <c r="D69">
-        <v>-0.07509989619572784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0411602919152352</v>
+      </c>
+      <c r="E69">
+        <v>0.009676777047768655</v>
+      </c>
+      <c r="F69">
+        <v>-0.003565832140484278</v>
+      </c>
+      <c r="G69">
+        <v>0.01382587799767097</v>
+      </c>
+      <c r="H69">
+        <v>0.02509734414116619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1850294843281807</v>
+        <v>0.2350576929572047</v>
       </c>
       <c r="C71">
-        <v>-0.1964016628687942</v>
+        <v>0.1473627215263434</v>
       </c>
       <c r="D71">
-        <v>-0.03480816036200693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03240501334947137</v>
+      </c>
+      <c r="E71">
+        <v>-0.01618020174322781</v>
+      </c>
+      <c r="F71">
+        <v>0.03969380905886725</v>
+      </c>
+      <c r="G71">
+        <v>-0.04563698674211863</v>
+      </c>
+      <c r="H71">
+        <v>-0.03268272737271003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1069006374486137</v>
+        <v>0.08240949556812432</v>
       </c>
       <c r="C72">
-        <v>0.06844583949001122</v>
+        <v>-0.104224558779188</v>
       </c>
       <c r="D72">
-        <v>-0.08128075570398539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07249292149140103</v>
+      </c>
+      <c r="E72">
+        <v>0.07386966006556731</v>
+      </c>
+      <c r="F72">
+        <v>0.01214214125360592</v>
+      </c>
+      <c r="G72">
+        <v>-0.02146763268080716</v>
+      </c>
+      <c r="H72">
+        <v>0.04336134616985581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.200218792227606</v>
+        <v>0.1726921870510035</v>
       </c>
       <c r="C73">
-        <v>0.03626148684611495</v>
+        <v>-0.1053272147464441</v>
       </c>
       <c r="D73">
-        <v>-0.1501879316228411</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05603101218016825</v>
+      </c>
+      <c r="E73">
+        <v>0.4901137026200402</v>
+      </c>
+      <c r="F73">
+        <v>-0.2131699437860689</v>
+      </c>
+      <c r="G73">
+        <v>0.3584058676512894</v>
+      </c>
+      <c r="H73">
+        <v>0.09327737630916746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1057397309765951</v>
+        <v>0.07583929906213008</v>
       </c>
       <c r="C74">
-        <v>0.09565222413359559</v>
+        <v>-0.120853457663786</v>
       </c>
       <c r="D74">
-        <v>0.02155315414254011</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02941386972467158</v>
+      </c>
+      <c r="E74">
+        <v>-0.02641327690637374</v>
+      </c>
+      <c r="F74">
+        <v>0.06560973712832245</v>
+      </c>
+      <c r="G74">
+        <v>0.0143724982332793</v>
+      </c>
+      <c r="H74">
+        <v>-0.02795446086268515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2562309079967546</v>
+        <v>0.1926190647781347</v>
       </c>
       <c r="C75">
-        <v>0.1758019192151755</v>
+        <v>-0.2335895104092222</v>
       </c>
       <c r="D75">
-        <v>0.09853238668210941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1218514277438637</v>
+      </c>
+      <c r="E75">
+        <v>-0.09350764846403796</v>
+      </c>
+      <c r="F75">
+        <v>-0.01285962797809811</v>
+      </c>
+      <c r="G75">
+        <v>-0.03756215198761197</v>
+      </c>
+      <c r="H75">
+        <v>-0.04211257331687712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1409685043842372</v>
+        <v>0.1018236501439409</v>
       </c>
       <c r="C76">
-        <v>0.1274183709988205</v>
+        <v>-0.1576789414207788</v>
       </c>
       <c r="D76">
-        <v>-0.005110487934550069</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01548450907510131</v>
+      </c>
+      <c r="E76">
+        <v>-0.04695708372788075</v>
+      </c>
+      <c r="F76">
+        <v>0.03068793790152473</v>
+      </c>
+      <c r="G76">
+        <v>-0.04910386679012234</v>
+      </c>
+      <c r="H76">
+        <v>-0.013456174082232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03952583222052723</v>
+        <v>0.04446330898037693</v>
       </c>
       <c r="C77">
-        <v>0.07763791401788948</v>
+        <v>-0.08599168461545642</v>
       </c>
       <c r="D77">
-        <v>-0.06442569116796161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2090957659919647</v>
+      </c>
+      <c r="E77">
+        <v>-0.6359909114365234</v>
+      </c>
+      <c r="F77">
+        <v>-0.4578490137674346</v>
+      </c>
+      <c r="G77">
+        <v>0.4165255258488102</v>
+      </c>
+      <c r="H77">
+        <v>-0.1377180088874097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03619097896671592</v>
+        <v>0.03079002209975782</v>
       </c>
       <c r="C78">
-        <v>0.06403495781698866</v>
+        <v>-0.07644155054856107</v>
       </c>
       <c r="D78">
-        <v>-0.1519515113434364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1433684326582522</v>
+      </c>
+      <c r="E78">
+        <v>0.02570621897566778</v>
+      </c>
+      <c r="F78">
+        <v>0.02588344807670174</v>
+      </c>
+      <c r="G78">
+        <v>0.01774652159865968</v>
+      </c>
+      <c r="H78">
+        <v>0.009274460679848147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06317895643053048</v>
+        <v>0.04819321003845171</v>
       </c>
       <c r="C79">
-        <v>0.1164145204891347</v>
+        <v>-0.1320049482070591</v>
       </c>
       <c r="D79">
-        <v>0.1029214625352905</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03853606322651148</v>
+      </c>
+      <c r="E79">
+        <v>-0.1786763506959688</v>
+      </c>
+      <c r="F79">
+        <v>0.7319941934341024</v>
+      </c>
+      <c r="G79">
+        <v>0.5114143255444181</v>
+      </c>
+      <c r="H79">
+        <v>0.1039547979300629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01755399713399267</v>
+        <v>0.01261899645715436</v>
       </c>
       <c r="C80">
-        <v>0.04842911742999673</v>
+        <v>-0.04990493968737369</v>
       </c>
       <c r="D80">
-        <v>-0.03084984750182163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03295358715918282</v>
+      </c>
+      <c r="E80">
+        <v>0.00500640751729797</v>
+      </c>
+      <c r="F80">
+        <v>0.01960548252461065</v>
+      </c>
+      <c r="G80">
+        <v>-0.06560868390404463</v>
+      </c>
+      <c r="H80">
+        <v>-0.02072428709115789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1298545110259281</v>
+        <v>0.0890934855901456</v>
       </c>
       <c r="C81">
-        <v>0.131333795153994</v>
+        <v>-0.1542890725204731</v>
       </c>
       <c r="D81">
-        <v>0.07755996879136152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08224479236009212</v>
+      </c>
+      <c r="E81">
+        <v>-0.08872410792707369</v>
+      </c>
+      <c r="F81">
+        <v>0.05818963251607565</v>
+      </c>
+      <c r="G81">
+        <v>-0.07336718709570449</v>
+      </c>
+      <c r="H81">
+        <v>0.005021844959505671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2545410286392543</v>
+        <v>0.1694746872750371</v>
       </c>
       <c r="C82">
-        <v>0.265203908518567</v>
+        <v>-0.2921920407552775</v>
       </c>
       <c r="D82">
-        <v>0.2292953258045898</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2256330816706533</v>
+      </c>
+      <c r="E82">
+        <v>-0.04014453002127164</v>
+      </c>
+      <c r="F82">
+        <v>-0.07167324110586173</v>
+      </c>
+      <c r="G82">
+        <v>-0.07489537255146636</v>
+      </c>
+      <c r="H82">
+        <v>0.01260042070429266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02084403008968089</v>
+        <v>0.009003796774561208</v>
       </c>
       <c r="C83">
-        <v>0.05935809965391436</v>
+        <v>-0.05518445852106767</v>
       </c>
       <c r="D83">
-        <v>-0.04424601385267807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05356794876946672</v>
+      </c>
+      <c r="E83">
+        <v>-0.08129447124878184</v>
+      </c>
+      <c r="F83">
+        <v>-0.04742295874836146</v>
+      </c>
+      <c r="G83">
+        <v>-0.01129811800726664</v>
+      </c>
+      <c r="H83">
+        <v>0.009972824326279743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002121364067448307</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.009308018133210546</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02918309171638024</v>
+      </c>
+      <c r="E84">
+        <v>-0.005471694299588423</v>
+      </c>
+      <c r="F84">
+        <v>0.01814200148578114</v>
+      </c>
+      <c r="G84">
+        <v>-0.02824663570475614</v>
+      </c>
+      <c r="H84">
+        <v>-0.02279944895007282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1616078199178372</v>
+        <v>0.1144123466973362</v>
       </c>
       <c r="C85">
-        <v>0.1338431598081153</v>
+        <v>-0.1772736158488478</v>
       </c>
       <c r="D85">
-        <v>0.06138621744788936</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08873947788338916</v>
+      </c>
+      <c r="E85">
+        <v>-0.0133055030920216</v>
+      </c>
+      <c r="F85">
+        <v>0.08929081884670868</v>
+      </c>
+      <c r="G85">
+        <v>-0.009841112355358816</v>
+      </c>
+      <c r="H85">
+        <v>-0.01658928907232286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01239841775691736</v>
+        <v>0.01253529726671321</v>
       </c>
       <c r="C86">
-        <v>0.0276129349591838</v>
+        <v>-0.0282671862468986</v>
       </c>
       <c r="D86">
-        <v>-0.1003071496699291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1104115396792656</v>
+      </c>
+      <c r="E86">
+        <v>-0.04702924034480553</v>
+      </c>
+      <c r="F86">
+        <v>-0.01802356129656206</v>
+      </c>
+      <c r="G86">
+        <v>-0.01882933521493092</v>
+      </c>
+      <c r="H86">
+        <v>-0.001250275802045276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02680034621512458</v>
+        <v>0.02677666386374613</v>
       </c>
       <c r="C87">
-        <v>0.02599352736841616</v>
+        <v>-0.04284818908276256</v>
       </c>
       <c r="D87">
-        <v>-0.1333874144165331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1491747285679687</v>
+      </c>
+      <c r="E87">
+        <v>-0.01809039535800877</v>
+      </c>
+      <c r="F87">
+        <v>0.02873465733519709</v>
+      </c>
+      <c r="G87">
+        <v>-0.05314281301833832</v>
+      </c>
+      <c r="H87">
+        <v>-0.0006792179651706879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06374787465000908</v>
+        <v>0.04837208534676112</v>
       </c>
       <c r="C88">
-        <v>0.04795377406209014</v>
+        <v>-0.06415001617259514</v>
       </c>
       <c r="D88">
-        <v>-0.05951663493635553</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02652593782111102</v>
+      </c>
+      <c r="E88">
+        <v>0.02001933128368534</v>
+      </c>
+      <c r="F88">
+        <v>0.03283812996112512</v>
+      </c>
+      <c r="G88">
+        <v>-0.0137102004411135</v>
+      </c>
+      <c r="H88">
+        <v>0.0304649637033357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2920993542585973</v>
+        <v>0.3654193295768969</v>
       </c>
       <c r="C89">
-        <v>-0.359827448730156</v>
+        <v>0.2623272614295054</v>
       </c>
       <c r="D89">
-        <v>-0.01092343140054459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0165687808643391</v>
+      </c>
+      <c r="E89">
+        <v>-0.04902824012310865</v>
+      </c>
+      <c r="F89">
+        <v>0.02042291665968738</v>
+      </c>
+      <c r="G89">
+        <v>-0.07971808071300533</v>
+      </c>
+      <c r="H89">
+        <v>0.1169433824596922</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2361331582974776</v>
+        <v>0.2879762652912845</v>
       </c>
       <c r="C90">
-        <v>-0.2636165235376478</v>
+        <v>0.1839887575241642</v>
       </c>
       <c r="D90">
-        <v>-0.03672273583624632</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04092943397661195</v>
+      </c>
+      <c r="E90">
+        <v>-0.0169685391803662</v>
+      </c>
+      <c r="F90">
+        <v>-0.01057411002788567</v>
+      </c>
+      <c r="G90">
+        <v>-0.04695975102424463</v>
+      </c>
+      <c r="H90">
+        <v>-0.05498391780425958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1677982802558164</v>
+        <v>0.1168587454374568</v>
       </c>
       <c r="C91">
-        <v>0.1804952626637938</v>
+        <v>-0.2009863528372238</v>
       </c>
       <c r="D91">
-        <v>0.09598234004078511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09939320852207403</v>
+      </c>
+      <c r="E91">
+        <v>-0.09433537516991262</v>
+      </c>
+      <c r="F91">
+        <v>0.08346132083543696</v>
+      </c>
+      <c r="G91">
+        <v>-0.0002971732700611232</v>
+      </c>
+      <c r="H91">
+        <v>-0.008710500345591092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2025555576184898</v>
+        <v>0.2801576602276156</v>
       </c>
       <c r="C92">
-        <v>-0.2593388500521315</v>
+        <v>0.2090554534247828</v>
       </c>
       <c r="D92">
-        <v>-0.02499885185607487</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03938169421659444</v>
+      </c>
+      <c r="E92">
+        <v>-0.1055798585467834</v>
+      </c>
+      <c r="F92">
+        <v>0.04850519686330502</v>
+      </c>
+      <c r="G92">
+        <v>-0.09262951816682694</v>
+      </c>
+      <c r="H92">
+        <v>0.02027071473424473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2568747145614524</v>
+        <v>0.305483236379764</v>
       </c>
       <c r="C93">
-        <v>-0.2846423702901458</v>
+        <v>0.1985272703586798</v>
       </c>
       <c r="D93">
-        <v>-0.03063611361668573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005375291004839965</v>
+      </c>
+      <c r="E93">
+        <v>0.0330354455781461</v>
+      </c>
+      <c r="F93">
+        <v>0.02782545784142499</v>
+      </c>
+      <c r="G93">
+        <v>0.03121071481729633</v>
+      </c>
+      <c r="H93">
+        <v>-0.002797148969245054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3387087470335432</v>
+        <v>0.2490730272185795</v>
       </c>
       <c r="C94">
-        <v>0.232838808917761</v>
+        <v>-0.3171698994926051</v>
       </c>
       <c r="D94">
-        <v>0.3507918273606497</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3554624107142137</v>
+      </c>
+      <c r="E94">
+        <v>-0.0471880283835163</v>
+      </c>
+      <c r="F94">
+        <v>-0.09128617486504499</v>
+      </c>
+      <c r="G94">
+        <v>-0.2848220820739712</v>
+      </c>
+      <c r="H94">
+        <v>-0.1728533624807393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06018410059243225</v>
+        <v>0.05151741833226053</v>
       </c>
       <c r="C95">
-        <v>0.04420542041829793</v>
+        <v>-0.06562115419906431</v>
       </c>
       <c r="D95">
-        <v>-0.0841478758095968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09217132495895475</v>
+      </c>
+      <c r="E95">
+        <v>-0.2033718990810243</v>
+      </c>
+      <c r="F95">
+        <v>-0.2332669330422897</v>
+      </c>
+      <c r="G95">
+        <v>0.0166800713171027</v>
+      </c>
+      <c r="H95">
+        <v>0.5133479633353508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>5.056226907120227e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5.857348716802596e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0004909728012912325</v>
+      </c>
+      <c r="E97">
+        <v>9.883534714688208e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005406385728103476</v>
+      </c>
+      <c r="G97">
+        <v>0.0001336629484418514</v>
+      </c>
+      <c r="H97">
+        <v>0.000600999552934165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.166914109908701</v>
+        <v>0.1460982766169502</v>
       </c>
       <c r="C98">
-        <v>0.06057181645408006</v>
+        <v>-0.1110457408585797</v>
       </c>
       <c r="D98">
-        <v>-0.09250913952183527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04986846913368317</v>
+      </c>
+      <c r="E98">
+        <v>0.3020658025038025</v>
+      </c>
+      <c r="F98">
+        <v>-0.1259941343835979</v>
+      </c>
+      <c r="G98">
+        <v>0.2155659289601083</v>
+      </c>
+      <c r="H98">
+        <v>0.02268468607496058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-4.028149104602774e-05</v>
+        <v>0.001944950283433147</v>
       </c>
       <c r="C101">
-        <v>0.0220191004844461</v>
+        <v>-0.02563112412301274</v>
       </c>
       <c r="D101">
-        <v>-0.1068790285552988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1072417077545485</v>
+      </c>
+      <c r="E101">
+        <v>0.02498164512755511</v>
+      </c>
+      <c r="F101">
+        <v>0.03545981384687257</v>
+      </c>
+      <c r="G101">
+        <v>-0.07269787614247507</v>
+      </c>
+      <c r="H101">
+        <v>0.07288427465773525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1194417197301222</v>
+        <v>0.07554566168712527</v>
       </c>
       <c r="C102">
-        <v>0.1390119141998094</v>
+        <v>-0.1446932369468678</v>
       </c>
       <c r="D102">
-        <v>0.07912824600585368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08914528139083072</v>
+      </c>
+      <c r="E102">
+        <v>-0.03633567769420518</v>
+      </c>
+      <c r="F102">
+        <v>-0.0503051554959061</v>
+      </c>
+      <c r="G102">
+        <v>-0.01922755840080522</v>
+      </c>
+      <c r="H102">
+        <v>0.04761255269338563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
